--- a/tutorial/CovidContagion/data/input/simulator_scenarios.xlsx
+++ b/tutorial/CovidContagion/data/input/simulator_scenarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/Melodie/tutorial/VirusContagion/data/excel_source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/Melodie/tutorial/CovidContagion/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B0E866-00EB-5C46-8942-1B85C4D3152E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07DF48A-464F-CD4F-8115-7EEA2642CC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -43,7 +43,19 @@
     <t>initial_infected_percentage</t>
   </si>
   <si>
-    <t>infection_probability</t>
+    <t>period_hours</t>
+  </si>
+  <si>
+    <t>young_percentage</t>
+  </si>
+  <si>
+    <t>infection_prob</t>
+  </si>
+  <si>
+    <t>reinfection_prob</t>
+  </si>
+  <si>
+    <t>vaccinated_infection_prob</t>
   </si>
 </sst>
 </file>
@@ -363,22 +375,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="334" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="5" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10" customWidth="1"/>
+    <col min="8" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,22 +404,34 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -415,19 +442,31 @@
         <v>100</v>
       </c>
       <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
         <v>1000</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2" s="1">
-        <v>0.1</v>
+      <c r="G2">
+        <v>100</v>
       </c>
       <c r="H2" s="1">
         <v>0.1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K2">
+        <v>1E-3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/tutorial/CovidContagion/data/input/simulator_scenarios.xlsx
+++ b/tutorial/CovidContagion/data/input/simulator_scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/Melodie/tutorial/CovidContagion/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07DF48A-464F-CD4F-8115-7EEA2642CC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F72E9B3-9762-A14F-BF98-95BF03D62CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,33 @@
   </si>
   <si>
     <t>vaccinated_infection_prob</t>
+  </si>
+  <si>
+    <t>vaccination_trust_percentage</t>
+  </si>
+  <si>
+    <t>vaccination_ad_percentage</t>
+  </si>
+  <si>
+    <t>vaccination_ad_success_prob</t>
+  </si>
+  <si>
+    <t>vaccination_action_prob</t>
+  </si>
+  <si>
+    <t>network_param_k</t>
+  </si>
+  <si>
+    <t>network_param_p</t>
+  </si>
+  <si>
+    <t>network_param_threshold</t>
+  </si>
+  <si>
+    <t>network_type</t>
+  </si>
+  <si>
+    <t>network_param_m</t>
   </si>
 </sst>
 </file>
@@ -375,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="334" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="181" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -387,13 +414,15 @@
     <col min="3" max="3" width="7.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="23.5" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="24" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" customWidth="1"/>
+    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,16 +451,43 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -460,12 +516,39 @@
         <v>0.8</v>
       </c>
       <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P2" s="1">
         <v>0.1</v>
       </c>
-      <c r="K2">
+      <c r="Q2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T2">
         <v>1E-3</v>
       </c>
-      <c r="L2" s="1">
+      <c r="U2" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>

--- a/tutorial/CovidContagion/data/input/simulator_scenarios.xlsx
+++ b/tutorial/CovidContagion/data/input/simulator_scenarios.xlsx
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/Melodie/tutorial/CovidContagion/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F72E9B3-9762-A14F-BF98-95BF03D62CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258D6FE5-2376-6F4C-A8A5-C56C1F7C2164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31840" yWindow="-8680" windowWidth="30240" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulator_scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -404,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -498,7 +510,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -546,10 +558,10 @@
         <v>0.1</v>
       </c>
       <c r="T2">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tutorial/CovidContagion/data/input/simulator_scenarios.xlsx
+++ b/tutorial/CovidContagion/data/input/simulator_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/Melodie/tutorial/CovidContagion/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258D6FE5-2376-6F4C-A8A5-C56C1F7C2164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC6CAF0-E7C1-5241-8601-BFE195836380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31840" yWindow="-8680" windowWidth="30240" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulator_scenarios" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -88,13 +88,19 @@
     <t>network_param_p</t>
   </si>
   <si>
-    <t>network_param_threshold</t>
-  </si>
-  <si>
     <t>network_type</t>
   </si>
   <si>
     <t>network_param_m</t>
+  </si>
+  <si>
+    <t>vaccination_neighbor_success_threshold</t>
+  </si>
+  <si>
+    <t>barabasi_albert_graph</t>
+  </si>
+  <si>
+    <t>watts_strogatz_graph</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="181" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -426,9 +432,9 @@
     <col min="3" max="3" width="7.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="14" width="23.5" customWidth="1"/>
-    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="24" customWidth="1"/>
+    <col min="8" max="13" width="23.5" customWidth="1"/>
+    <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="24" customWidth="1"/>
     <col min="19" max="19" width="18.33203125" customWidth="1"/>
     <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.83203125" bestFit="1" customWidth="1"/>
@@ -463,7 +469,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>16</v>
@@ -472,19 +478,19 @@
         <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>15</v>
@@ -510,7 +516,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -527,8 +533,8 @@
       <c r="I2" s="1">
         <v>0.8</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="K2" s="1">
         <v>6</v>
@@ -537,16 +543,16 @@
         <v>0.2</v>
       </c>
       <c r="M2" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N2" s="1">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P2" s="1">
         <v>0.5</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0.1</v>
       </c>
       <c r="Q2" s="1">
         <v>0.5</v>
@@ -561,6 +567,71 @@
         <v>0</v>
       </c>
       <c r="U2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
         <v>0</v>
       </c>
     </row>

--- a/tutorial/CovidContagion/data/input/simulator_scenarios.xlsx
+++ b/tutorial/CovidContagion/data/input/simulator_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/Melodie/tutorial/CovidContagion/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC6CAF0-E7C1-5241-8601-BFE195836380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8A407B-5BC3-074C-85DB-5EE14833BBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40200" yWindow="-11500" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulator_scenarios" sheetId="1" r:id="rId1"/>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -431,10 +431,13 @@
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="7.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
     <col min="8" max="13" width="23.5" customWidth="1"/>
     <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="24" customWidth="1"/>
+    <col min="15" max="16" width="24" customWidth="1"/>
+    <col min="17" max="17" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24" customWidth="1"/>
     <col min="19" max="19" width="18.33203125" customWidth="1"/>
     <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.83203125" bestFit="1" customWidth="1"/>
@@ -617,7 +620,7 @@
         <v>0.1</v>
       </c>
       <c r="P3" s="1">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="Q3" s="1">
         <v>0.5</v>

--- a/tutorial/CovidContagion/data/input/simulator_scenarios.xlsx
+++ b/tutorial/CovidContagion/data/input/simulator_scenarios.xlsx
@@ -1,33 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/Melodie/tutorial/CovidContagion/data/input/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8A407B-5BC3-074C-85DB-5EE14833BBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40200" yWindow="-11500" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="simulator_scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -37,10 +19,13 @@
     <t>id</t>
   </si>
   <si>
-    <t>number_of_run</t>
-  </si>
-  <si>
-    <t>periods</t>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>period_num</t>
+  </si>
+  <si>
+    <t>period_hours</t>
   </si>
   <si>
     <t>agent_num</t>
@@ -55,12 +40,36 @@
     <t>initial_infected_percentage</t>
   </si>
   <si>
-    <t>period_hours</t>
-  </si>
-  <si>
     <t>young_percentage</t>
   </si>
   <si>
+    <t>network_type</t>
+  </si>
+  <si>
+    <t>network_param_k</t>
+  </si>
+  <si>
+    <t>network_param_p</t>
+  </si>
+  <si>
+    <t>network_param_m</t>
+  </si>
+  <si>
+    <t>vaccination_trust_percentage</t>
+  </si>
+  <si>
+    <t>vaccination_ad_percentage</t>
+  </si>
+  <si>
+    <t>vaccination_ad_success_prob</t>
+  </si>
+  <si>
+    <t>vaccination_neighbor_success_threshold</t>
+  </si>
+  <si>
+    <t>vaccination_action_prob</t>
+  </si>
+  <si>
     <t>infection_prob</t>
   </si>
   <si>
@@ -68,33 +77,6 @@
   </si>
   <si>
     <t>vaccinated_infection_prob</t>
-  </si>
-  <si>
-    <t>vaccination_trust_percentage</t>
-  </si>
-  <si>
-    <t>vaccination_ad_percentage</t>
-  </si>
-  <si>
-    <t>vaccination_ad_success_prob</t>
-  </si>
-  <si>
-    <t>vaccination_action_prob</t>
-  </si>
-  <si>
-    <t>network_param_k</t>
-  </si>
-  <si>
-    <t>network_param_p</t>
-  </si>
-  <si>
-    <t>network_type</t>
-  </si>
-  <si>
-    <t>network_param_m</t>
-  </si>
-  <si>
-    <t>vaccination_neighbor_success_threshold</t>
   </si>
   <si>
     <t>barabasi_albert_graph</t>
@@ -106,31 +88,367 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -138,25 +456,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -414,36 +1018,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1607142857143" customWidth="1"/>
+    <col min="3" max="3" width="7.16071428571429" customWidth="1"/>
+    <col min="4" max="4" width="11.3303571428571" customWidth="1"/>
+    <col min="5" max="5" width="9.66071428571429" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
     <col min="8" max="13" width="23.5" customWidth="1"/>
-    <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="24" customWidth="1"/>
-    <col min="17" max="17" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="24" customWidth="1"/>
+    <col min="17" max="17" width="32.8303571428571" customWidth="1"/>
     <col min="18" max="18" width="24" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" customWidth="1"/>
-    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.3303571428571" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="21" max="21" width="21.8303571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,61 +1057,61 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>0</v>
       </c>
@@ -573,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>1</v>
       </c>
@@ -641,5 +1244,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/tutorial/CovidContagion/data/input/simulator_scenarios.xlsx
+++ b/tutorial/CovidContagion/data/input/simulator_scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13000"/>
+    <workbookView windowWidth="30240" windowHeight="12940"/>
   </bookViews>
   <sheets>
     <sheet name="simulator_scenarios" sheetId="1" r:id="rId1"/>
@@ -117,6 +117,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -132,55 +147,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,7 +211,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,14 +219,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,31 +232,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,31 +263,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,49 +383,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,97 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,17 +470,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -516,11 +514,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,162 +544,158 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1026,8 +1026,8 @@
   <sheetPr/>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="2"/>
@@ -1158,16 +1158,16 @@
         <v>0.1</v>
       </c>
       <c r="P2" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
         <v>0.2</v>
       </c>
       <c r="S2" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0.2</v>
       </c>
       <c r="S3" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="T3">
         <v>0</v>
